--- a/每日新增BUG数的控制图.xlsx
+++ b/每日新增BUG数的控制图.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyaren/Documents/ExcelStatistics/ControlChart/Measures-Easy-Statistics/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54814CE1-AEAF-B749-AC8E-710E76A8DD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="8595" tabRatio="669" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="1940" yWindow="500" windowWidth="21720" windowHeight="15860" tabRatio="669" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CB_DATA_" sheetId="34" state="hidden" r:id="rId1"/>
     <sheet name="其他监控PPB" sheetId="36" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="38" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
@@ -45,14 +51,14 @@
     <definedName name="CBx_StorageType" localSheetId="0" hidden="1">1</definedName>
     <definedName name="CD_DIR_SL">#REF!</definedName>
     <definedName name="DC">#REF!</definedName>
-    <definedName name="DRE1_H_CL">[2]PPB!$H$9</definedName>
-    <definedName name="DRE1_H_LL">[2]PPB!$G$9</definedName>
-    <definedName name="DRE1_H_Stdev">[2]PPB!$K$7</definedName>
-    <definedName name="DRE1_H_UL">[2]PPB!$I$9</definedName>
-    <definedName name="DRE1_M_CL">[2]PPB!$D$9</definedName>
-    <definedName name="DRE1_M_LL">[2]PPB!$C$9</definedName>
-    <definedName name="DRE1_M_Stdev">[2]PPB!$K$8</definedName>
-    <definedName name="DRE1_M_UL">[2]PPB!$E$9</definedName>
+    <definedName name="DRE1_H_CL">[1]PPB!$H$9</definedName>
+    <definedName name="DRE1_H_LL">[1]PPB!$G$9</definedName>
+    <definedName name="DRE1_H_Stdev">[1]PPB!$K$7</definedName>
+    <definedName name="DRE1_H_UL">[1]PPB!$I$9</definedName>
+    <definedName name="DRE1_M_CL">[1]PPB!$D$9</definedName>
+    <definedName name="DRE1_M_LL">[1]PPB!$C$9</definedName>
+    <definedName name="DRE1_M_Stdev">[1]PPB!$K$8</definedName>
+    <definedName name="DRE1_M_UL">[1]PPB!$E$9</definedName>
     <definedName name="DTL">#REF!</definedName>
     <definedName name="RD_DIR_SL">#REF!</definedName>
     <definedName name="S_DRE2_LL">#REF!</definedName>
@@ -62,12 +68,23 @@
     <definedName name="SD_DIR_SL">#REF!</definedName>
     <definedName name="SIZE">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>StartOptEquations</t>
   </si>
@@ -86,17 +103,32 @@
   <si>
     <t>速度差额</t>
   </si>
+  <si>
+    <t xml:space="preserve">一 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">二 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">三 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">四 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">五 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="182" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="0.00_ "/>
-    <numFmt numFmtId="189" formatCode="0.0_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
+    <numFmt numFmtId="166" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -128,12 +160,6 @@
       <color indexed="52"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -192,11 +218,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
@@ -215,11 +236,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Geneva"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -282,6 +298,13 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -629,9 +652,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,73 +709,72 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,20 +796,20 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -796,16 +818,16 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="26" fillId="25" borderId="12" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="25" borderId="12" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="26" fillId="25" borderId="12" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="25" borderId="12" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="26" fillId="25" borderId="13" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="25" borderId="13" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -817,16 +839,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="14" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="15" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="15" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,6 +857,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -842,64 +867,71 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="54">
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="1"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="2" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="3" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="5" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="6" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="7" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="8" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="9" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="11" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="12" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="13" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="16" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="17" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="18" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="19" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Normal_Monthly Data" xfId="20"/>
-    <cellStyle name="标题" xfId="21" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="24" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="25" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="26" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="27"/>
-    <cellStyle name="常规 2 2" xfId="28"/>
-    <cellStyle name="常规 3" xfId="29"/>
-    <cellStyle name="常规 3 2" xfId="30"/>
-    <cellStyle name="常规 4" xfId="31"/>
-    <cellStyle name="常规 5" xfId="32"/>
-    <cellStyle name="常规 6" xfId="33"/>
-    <cellStyle name="常规_其他监控PPB" xfId="34"/>
-    <cellStyle name="常规_其他监控PPB_5" xfId="35"/>
-    <cellStyle name="好" xfId="36" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="37" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="货币 2" xfId="38"/>
-    <cellStyle name="计算" xfId="39" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="40" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="41" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="42" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="43" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="44" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="45" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="46" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="47" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="48" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="50" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="51" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="52" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="53" builtinId="10" customBuiltin="1"/>
+  <cellStyles count="53">
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="3" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="5" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="7" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="8" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="9" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="10" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="11" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="12" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="13" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="14" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="15" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="16" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="17" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="18" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="19" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="43" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="44" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="45" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="46" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="47" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="48" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="38" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="39" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="40" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="35" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="23" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="24" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="51" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="42" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="49" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="52" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="50" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="20" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="36" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="常规 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="常规 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="常规 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="常规 3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="常规 4" xfId="30" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="常规 5" xfId="31" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 6" xfId="32" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="常规_其他监控PPB" xfId="33" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="常规_其他监控PPB_5" xfId="34" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="货币 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -907,20 +939,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13315" name="Picture 1027"/>
+        <xdr:cNvPr id="13315" name="Picture 1027">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -934,8 +972,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4076700" y="933450"/>
-          <a:ext cx="5695950" cy="4076700"/>
+          <a:off x="8277225" y="2663825"/>
+          <a:ext cx="5594350" cy="4286250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -966,7 +1004,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13316" name="Picture 1028"/>
+        <xdr:cNvPr id="13316" name="Picture 1028">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -997,42 +1041,66 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13314" name="Object 1026" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s13314"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002340000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="量化计划"/>
-      <sheetName val="数据汇总"/>
-      <sheetName val="进度跟踪"/>
-      <sheetName val="工作量跟踪"/>
-      <sheetName val="审核活动"/>
-      <sheetName val="代码评审（JAVA)"/>
-      <sheetName val="代码评审（DELPHI)"/>
-      <sheetName val="代码规模统计"/>
-      <sheetName val="过程审计"/>
-      <sheetName val="原因分析及控制措施"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CB_DATA_"/>
@@ -1088,7 +1156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1130,7 +1198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1162,9 +1230,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1196,6 +1282,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1371,12 +1475,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A10000:A10008"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="10000" spans="1:1">
       <c r="A10000" t="s">
@@ -1432,7 +1536,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="4294963191" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -1441,14 +1545,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:I43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="15" style="8" customWidth="1"/>
     <col min="4" max="4" width="9" style="8"/>
   </cols>
@@ -1459,16 +1565,16 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="36" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2"/>
@@ -1495,11 +1601,21 @@
       <c r="D6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="E6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
@@ -1516,6 +1632,21 @@
         <f t="shared" ref="D7:D43" si="0">C7-B7</f>
         <v>-4</v>
       </c>
+      <c r="E7" s="17">
+        <v>50.5</v>
+      </c>
+      <c r="F7" s="17">
+        <v>43.5</v>
+      </c>
+      <c r="G7" s="17">
+        <v>45.5</v>
+      </c>
+      <c r="H7" s="17">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="I7" s="17">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -1531,6 +1662,21 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
+      <c r="E8" s="17">
+        <v>44.3</v>
+      </c>
+      <c r="F8" s="17">
+        <v>44.9</v>
+      </c>
+      <c r="G8" s="17">
+        <v>42.9</v>
+      </c>
+      <c r="H8" s="17">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="I8" s="17">
+        <v>39.299999999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="7">
@@ -1546,6 +1692,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E9" s="17">
+        <v>48.8</v>
+      </c>
+      <c r="F9" s="17">
+        <v>51</v>
+      </c>
+      <c r="G9" s="17">
+        <v>44.3</v>
+      </c>
+      <c r="H9" s="17">
+        <v>43</v>
+      </c>
+      <c r="I9" s="17">
+        <v>51.3</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5">
@@ -1561,6 +1722,21 @@
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
+      <c r="E10" s="17">
+        <v>46.3</v>
+      </c>
+      <c r="F10" s="17">
+        <v>45.2</v>
+      </c>
+      <c r="G10" s="17">
+        <v>48.1</v>
+      </c>
+      <c r="H10" s="17">
+        <v>45.7</v>
+      </c>
+      <c r="I10" s="17">
+        <v>44.1</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7">
@@ -1576,6 +1752,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E11" s="17">
+        <v>40.6</v>
+      </c>
+      <c r="F11" s="17">
+        <v>45.7</v>
+      </c>
+      <c r="G11" s="17">
+        <v>51.9</v>
+      </c>
+      <c r="H11" s="17">
+        <v>47.3</v>
+      </c>
+      <c r="I11" s="17">
+        <v>46.4</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5">
@@ -1591,6 +1782,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E12" s="17">
+        <v>44.4</v>
+      </c>
+      <c r="F12" s="17">
+        <v>49</v>
+      </c>
+      <c r="G12" s="17">
+        <v>47.9</v>
+      </c>
+      <c r="H12" s="17">
+        <v>45.5</v>
+      </c>
+      <c r="I12" s="17">
+        <v>44.8</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="7">
@@ -1606,6 +1812,21 @@
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
+      <c r="E13" s="17">
+        <v>46</v>
+      </c>
+      <c r="F13" s="17">
+        <v>41.1</v>
+      </c>
+      <c r="G13" s="17">
+        <v>44.1</v>
+      </c>
+      <c r="H13" s="17">
+        <v>41.8</v>
+      </c>
+      <c r="I13" s="17">
+        <v>47.9</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5">
@@ -1621,6 +1842,21 @@
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
+      <c r="E14" s="17">
+        <v>44.9</v>
+      </c>
+      <c r="F14" s="17">
+        <v>43.4</v>
+      </c>
+      <c r="G14" s="17">
+        <v>49</v>
+      </c>
+      <c r="H14" s="17">
+        <v>45.5</v>
+      </c>
+      <c r="I14" s="17">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7">
@@ -1636,6 +1872,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E15" s="17">
+        <v>50</v>
+      </c>
+      <c r="F15" s="17">
+        <v>49</v>
+      </c>
+      <c r="G15" s="17">
+        <v>42.6</v>
+      </c>
+      <c r="H15" s="17">
+        <v>41.7</v>
+      </c>
+      <c r="I15" s="17">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7">
@@ -1651,8 +1902,23 @@
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="17">
+        <v>44.5</v>
+      </c>
+      <c r="F16" s="17">
+        <v>46.5</v>
+      </c>
+      <c r="G16" s="17">
+        <v>41.7</v>
+      </c>
+      <c r="H16" s="17">
+        <v>42.6</v>
+      </c>
+      <c r="I16" s="17">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="7">
         <v>8.24</v>
       </c>
@@ -1666,8 +1932,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="17">
+        <v>43.8</v>
+      </c>
+      <c r="F17" s="17">
+        <v>41.8</v>
+      </c>
+      <c r="G17" s="17">
+        <v>45.5</v>
+      </c>
+      <c r="H17" s="17">
+        <v>44.5</v>
+      </c>
+      <c r="I17" s="17">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="7">
         <v>8.25</v>
       </c>
@@ -1681,8 +1962,23 @@
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="17">
+        <v>43.2</v>
+      </c>
+      <c r="F18" s="17">
+        <v>43.8</v>
+      </c>
+      <c r="G18" s="17">
+        <v>44.8</v>
+      </c>
+      <c r="H18" s="17">
+        <v>43.5</v>
+      </c>
+      <c r="I18" s="17">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="7">
         <v>8.26</v>
       </c>
@@ -1696,8 +1992,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="17">
+        <v>50</v>
+      </c>
+      <c r="F19" s="17">
+        <v>43.4</v>
+      </c>
+      <c r="G19" s="17">
+        <v>48.3</v>
+      </c>
+      <c r="H19" s="17">
+        <v>46.4</v>
+      </c>
+      <c r="I19" s="17">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="7">
         <v>8.27</v>
       </c>
@@ -1711,8 +2022,23 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="17">
+        <v>52.3</v>
+      </c>
+      <c r="F20" s="17">
+        <v>45.2</v>
+      </c>
+      <c r="G20" s="17">
+        <v>42.2</v>
+      </c>
+      <c r="H20" s="17">
+        <v>44.8</v>
+      </c>
+      <c r="I20" s="17">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="7">
         <v>8.2799999999999994</v>
       </c>
@@ -1726,8 +2052,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="17">
+        <v>50</v>
+      </c>
+      <c r="F21" s="17">
+        <v>46.2</v>
+      </c>
+      <c r="G21" s="17">
+        <v>47.4</v>
+      </c>
+      <c r="H21" s="17">
+        <v>42.2</v>
+      </c>
+      <c r="I21" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="7">
         <v>8.2899999999999991</v>
       </c>
@@ -1741,8 +2082,23 @@
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="17">
+        <v>47.3</v>
+      </c>
+      <c r="F22" s="17">
+        <v>49.7</v>
+      </c>
+      <c r="G22" s="17">
+        <v>48</v>
+      </c>
+      <c r="H22" s="17">
+        <v>42</v>
+      </c>
+      <c r="I22" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="7">
         <v>8.3000000000000007</v>
       </c>
@@ -1757,7 +2113,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:9">
       <c r="A24" s="7">
         <v>8.31</v>
       </c>
@@ -1772,7 +2128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:9">
       <c r="A25" s="6">
         <v>9.1</v>
       </c>
@@ -1787,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:9">
       <c r="A26" s="6">
         <v>9.1999999999999993</v>
       </c>
@@ -1802,7 +2158,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:9">
       <c r="A27" s="6">
         <v>9.3000000000000007</v>
       </c>
@@ -1817,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:9">
       <c r="A28" s="6">
         <v>9.4</v>
       </c>
@@ -1832,7 +2188,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:9">
       <c r="A29" s="6">
         <v>9.5</v>
       </c>
@@ -1847,7 +2203,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:9">
       <c r="A30" s="6">
         <v>9.6</v>
       </c>
@@ -1862,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:9">
       <c r="A31" s="6">
         <v>9.6999999999999993</v>
       </c>
@@ -1877,7 +2233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:9">
       <c r="A32" s="6">
         <v>9.8000000000000007</v>
       </c>
@@ -2061,14 +2417,877 @@
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="4294963191" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <oleObject progId="MtbGraph.Document.15" shapeId="13314" r:id="rId3"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="MtbGraph.Document.15" shapeId="13314" r:id="rId3">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>444500</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>444500</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="MtbGraph.Document.15" shapeId="13314" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209AD9DE-33EF-7444-BB4A-E13169D216DC}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7">
+        <v>8.14</v>
+      </c>
+      <c r="B2" s="14">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16">
+        <f t="shared" ref="D2:D38" si="0">C2-B2</f>
+        <v>-4</v>
+      </c>
+      <c r="E2" s="17">
+        <v>50.5</v>
+      </c>
+      <c r="F2" s="17">
+        <v>43.5</v>
+      </c>
+      <c r="G2" s="17">
+        <v>45.5</v>
+      </c>
+      <c r="H2" s="17">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="I2" s="17">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
+        <v>8.15</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>44.3</v>
+      </c>
+      <c r="F3" s="17">
+        <v>44.9</v>
+      </c>
+      <c r="G3" s="17">
+        <v>42.9</v>
+      </c>
+      <c r="H3" s="17">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="I3" s="17">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7">
+        <v>8.16</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16">
+        <v>6</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E4" s="17">
+        <v>48.8</v>
+      </c>
+      <c r="F4" s="17">
+        <v>51</v>
+      </c>
+      <c r="G4" s="17">
+        <v>44.3</v>
+      </c>
+      <c r="H4" s="17">
+        <v>43</v>
+      </c>
+      <c r="I4" s="17">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
+        <v>8.17</v>
+      </c>
+      <c r="B5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="E5" s="17">
+        <v>46.3</v>
+      </c>
+      <c r="F5" s="17">
+        <v>45.2</v>
+      </c>
+      <c r="G5" s="17">
+        <v>48.1</v>
+      </c>
+      <c r="H5" s="17">
+        <v>45.7</v>
+      </c>
+      <c r="I5" s="17">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="7">
+        <v>8.18</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>40.6</v>
+      </c>
+      <c r="F6" s="17">
+        <v>45.7</v>
+      </c>
+      <c r="G6" s="17">
+        <v>51.9</v>
+      </c>
+      <c r="H6" s="17">
+        <v>47.3</v>
+      </c>
+      <c r="I6" s="17">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
+        <v>8.19</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>44.4</v>
+      </c>
+      <c r="F7" s="17">
+        <v>49</v>
+      </c>
+      <c r="G7" s="17">
+        <v>47.9</v>
+      </c>
+      <c r="H7" s="17">
+        <v>45.5</v>
+      </c>
+      <c r="I7" s="17">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B8" s="13">
+        <v>6</v>
+      </c>
+      <c r="C8" s="16">
+        <v>4</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E8" s="17">
+        <v>46</v>
+      </c>
+      <c r="F8" s="17">
+        <v>41.1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>44.1</v>
+      </c>
+      <c r="H8" s="17">
+        <v>41.8</v>
+      </c>
+      <c r="I8" s="17">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="B9" s="13">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="E9" s="17">
+        <v>44.9</v>
+      </c>
+      <c r="F9" s="17">
+        <v>43.4</v>
+      </c>
+      <c r="G9" s="17">
+        <v>49</v>
+      </c>
+      <c r="H9" s="17">
+        <v>45.5</v>
+      </c>
+      <c r="I9" s="17">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="16">
+        <v>4</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="17">
+        <v>50</v>
+      </c>
+      <c r="F10" s="17">
+        <v>49</v>
+      </c>
+      <c r="G10" s="17">
+        <v>42.6</v>
+      </c>
+      <c r="H10" s="17">
+        <v>41.7</v>
+      </c>
+      <c r="I10" s="17">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7">
+        <v>8.23</v>
+      </c>
+      <c r="B11" s="12">
+        <v>10</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="E11" s="17">
+        <v>44.5</v>
+      </c>
+      <c r="F11" s="17">
+        <v>46.5</v>
+      </c>
+      <c r="G11" s="17">
+        <v>41.7</v>
+      </c>
+      <c r="H11" s="17">
+        <v>42.6</v>
+      </c>
+      <c r="I11" s="17">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7">
+        <v>8.24</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16">
+        <v>4</v>
+      </c>
+      <c r="D12" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="17">
+        <v>43.8</v>
+      </c>
+      <c r="F12" s="17">
+        <v>41.8</v>
+      </c>
+      <c r="G12" s="17">
+        <v>45.5</v>
+      </c>
+      <c r="H12" s="17">
+        <v>44.5</v>
+      </c>
+      <c r="I12" s="17">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="B13" s="13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="E13" s="17">
+        <v>43.2</v>
+      </c>
+      <c r="F13" s="17">
+        <v>43.8</v>
+      </c>
+      <c r="G13" s="17">
+        <v>44.8</v>
+      </c>
+      <c r="H13" s="17">
+        <v>43.5</v>
+      </c>
+      <c r="I13" s="17">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7">
+        <v>8.26</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>50</v>
+      </c>
+      <c r="F14" s="17">
+        <v>43.4</v>
+      </c>
+      <c r="G14" s="17">
+        <v>48.3</v>
+      </c>
+      <c r="H14" s="17">
+        <v>46.4</v>
+      </c>
+      <c r="I14" s="17">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7">
+        <v>8.27</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16">
+        <v>7</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E15" s="17">
+        <v>52.3</v>
+      </c>
+      <c r="F15" s="17">
+        <v>45.2</v>
+      </c>
+      <c r="G15" s="17">
+        <v>42.2</v>
+      </c>
+      <c r="H15" s="17">
+        <v>44.8</v>
+      </c>
+      <c r="I15" s="17">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="B16" s="13">
+        <v>2</v>
+      </c>
+      <c r="C16" s="16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
+        <v>50</v>
+      </c>
+      <c r="F16" s="17">
+        <v>46.2</v>
+      </c>
+      <c r="G16" s="17">
+        <v>47.4</v>
+      </c>
+      <c r="H16" s="17">
+        <v>42.2</v>
+      </c>
+      <c r="I16" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="B17" s="13">
+        <v>4</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="E17" s="17">
+        <v>47.3</v>
+      </c>
+      <c r="F17" s="17">
+        <v>49.7</v>
+      </c>
+      <c r="G17" s="17">
+        <v>48</v>
+      </c>
+      <c r="H17" s="17">
+        <v>42</v>
+      </c>
+      <c r="I17" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B18" s="13">
+        <v>4</v>
+      </c>
+      <c r="C18" s="16">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="7">
+        <v>8.31</v>
+      </c>
+      <c r="B19" s="13">
+        <v>3</v>
+      </c>
+      <c r="C19" s="16">
+        <v>11</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B21" s="13">
+        <v>3</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B22" s="13">
+        <v>2</v>
+      </c>
+      <c r="C22" s="16">
+        <v>2</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="B23" s="12">
+        <v>10</v>
+      </c>
+      <c r="C23" s="16">
+        <v>6</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="B24" s="12">
+        <v>7</v>
+      </c>
+      <c r="C24" s="16">
+        <v>5</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="B25" s="11">
+        <v>4</v>
+      </c>
+      <c r="C25" s="16">
+        <v>4</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B26" s="12">
+        <v>10</v>
+      </c>
+      <c r="C26" s="16">
+        <v>12</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5">
+        <v>9.1</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1</v>
+      </c>
+      <c r="C29" s="16">
+        <v>3</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5">
+        <v>9.11</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2</v>
+      </c>
+      <c r="C30" s="16">
+        <v>3</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="B31" s="11">
+        <v>5</v>
+      </c>
+      <c r="C31" s="16">
+        <v>2</v>
+      </c>
+      <c r="D31" s="16">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="B32" s="11">
+        <v>5</v>
+      </c>
+      <c r="C32" s="16">
+        <v>1</v>
+      </c>
+      <c r="D32" s="16">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5">
+        <v>9.14</v>
+      </c>
+      <c r="B33" s="11">
+        <v>5</v>
+      </c>
+      <c r="C33" s="16">
+        <v>7</v>
+      </c>
+      <c r="D33" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5">
+        <v>9.15</v>
+      </c>
+      <c r="B34" s="11">
+        <v>0</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
+      <c r="D34" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5">
+        <v>9.16</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0</v>
+      </c>
+      <c r="C35" s="16">
+        <v>2</v>
+      </c>
+      <c r="D35" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5">
+        <v>9.17</v>
+      </c>
+      <c r="B36" s="11">
+        <v>1</v>
+      </c>
+      <c r="C36" s="16">
+        <v>1</v>
+      </c>
+      <c r="D36" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5">
+        <v>9.18</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
+      <c r="C37" s="16">
+        <v>1</v>
+      </c>
+      <c r="D37" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5">
+        <v>9.19</v>
+      </c>
+      <c r="B38" s="11">
+        <v>3</v>
+      </c>
+      <c r="C38" s="16">
+        <v>2</v>
+      </c>
+      <c r="D38" s="16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>